--- a/example.xlsx
+++ b/example.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,201 +425,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ZP</t>
+          <t>ZP23076514</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
+          <t>CO7865276</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZP23076514</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CO7865276</t>
-        </is>
+          <t>ZP23056732</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CO238654</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZP23025612</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+          <t>ZP23063182</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CO235674</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZP2305676</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
+          <t>ZP23065123</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CO230600</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ZP23063611</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ZP23076514</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ZP23025612</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ZP2305676</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CO7647263</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ZP23023764</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
+          <t>ZP23069716</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CO2303421</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,97 +424,184 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ZP23076514</t>
+          <t>ZP23063611</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CO7865276</t>
+          <t>CO3562774</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZP23056732</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CO238654</t>
+          <t>ZP23025612</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZP23063182</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CO235674</t>
+          <t>ZP2305676</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZP23065123</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CO230600</t>
+          <t>ZP23023764</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZP23069716</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CO2303421</t>
+          <t>ZP23063611</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZP23076514</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ZP23025612</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ZP2305676</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CO7647263</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZP23023764</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>